--- a/data/option/MSFT_2021-05-26_call_revised.xlsx
+++ b/data/option/MSFT_2021-05-26_call_revised.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F386"/>
+  <dimension ref="A1:E386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>strike</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Maturity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>lastPrice</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
@@ -465,18 +460,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="C2" t="n">
-        <v>220</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>31.55</v>
       </c>
       <c r="E2" t="n">
-        <v>31.55</v>
-      </c>
-      <c r="F2" t="n">
         <v>62</v>
       </c>
     </row>
@@ -485,18 +477,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="C3" t="n">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>27.38</v>
       </c>
       <c r="E3" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -505,18 +494,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="C4" t="n">
-        <v>230</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>21.4</v>
       </c>
       <c r="E4" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F4" t="n">
         <v>45</v>
       </c>
     </row>
@@ -525,18 +511,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="C5" t="n">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>16.47</v>
       </c>
       <c r="E5" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="F5" t="n">
         <v>17</v>
       </c>
     </row>
@@ -545,18 +528,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>237.5</v>
       </c>
       <c r="C6" t="n">
-        <v>237.5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>13.65</v>
       </c>
       <c r="E6" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="F6" t="n">
         <v>22</v>
       </c>
     </row>
@@ -565,18 +545,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
-      </c>
-      <c r="F7" t="n">
         <v>78</v>
       </c>
     </row>
@@ -585,18 +562,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>242.5</v>
       </c>
       <c r="C8" t="n">
-        <v>242.5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>8.9</v>
       </c>
       <c r="E8" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="F8" t="n">
         <v>78</v>
       </c>
     </row>
@@ -605,18 +579,15 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="C9" t="n">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>6.75</v>
       </c>
       <c r="E9" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="F9" t="n">
         <v>437</v>
       </c>
     </row>
@@ -625,18 +596,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>247.5</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>4.69</v>
       </c>
       <c r="E10" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="F10" t="n">
         <v>337</v>
       </c>
     </row>
@@ -645,18 +613,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="C11" t="n">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="E11" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="F11" t="n">
         <v>5394</v>
       </c>
     </row>
@@ -665,18 +630,15 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>252.5</v>
       </c>
       <c r="C12" t="n">
-        <v>252.5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="E12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F12" t="n">
         <v>7938</v>
       </c>
     </row>
@@ -685,18 +647,15 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="C13" t="n">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0.51</v>
       </c>
       <c r="E13" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F13" t="n">
         <v>8337</v>
       </c>
     </row>
@@ -705,18 +664,15 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>257.5</v>
       </c>
       <c r="C14" t="n">
-        <v>257.5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0.16</v>
       </c>
       <c r="E14" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F14" t="n">
         <v>5561</v>
       </c>
     </row>
@@ -725,18 +681,15 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="C15" t="n">
-        <v>260</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F15" t="n">
         <v>2880</v>
       </c>
     </row>
@@ -745,18 +698,15 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>31</v>
+        <v>262.5</v>
       </c>
       <c r="C16" t="n">
-        <v>262.5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F16" t="n">
         <v>304</v>
       </c>
     </row>
@@ -765,18 +715,15 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>32</v>
+        <v>265</v>
       </c>
       <c r="C17" t="n">
-        <v>265</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F17" t="n">
         <v>377</v>
       </c>
     </row>
@@ -785,18 +732,15 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="C18" t="n">
-        <v>270</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F18" t="n">
         <v>72</v>
       </c>
     </row>
@@ -805,18 +749,15 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>35</v>
+        <v>272.5</v>
       </c>
       <c r="C19" t="n">
-        <v>272.5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -825,18 +766,15 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="C20" t="n">
-        <v>275</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F20" t="n">
         <v>171</v>
       </c>
     </row>
@@ -845,18 +783,15 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="C21" t="n">
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -865,18 +800,15 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="C22" t="n">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>46.5</v>
       </c>
       <c r="E22" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -885,18 +817,15 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="C23" t="n">
-        <v>220</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>31.5</v>
       </c>
       <c r="E23" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F23" t="n">
         <v>182</v>
       </c>
     </row>
@@ -905,18 +834,15 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="C24" t="n">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>21.5</v>
       </c>
       <c r="E24" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F24" t="n">
         <v>54</v>
       </c>
     </row>
@@ -925,18 +851,15 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="C25" t="n">
-        <v>235</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>16.72</v>
       </c>
       <c r="E25" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="F25" t="n">
         <v>9</v>
       </c>
     </row>
@@ -945,18 +868,15 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>73</v>
+        <v>237.5</v>
       </c>
       <c r="C26" t="n">
-        <v>237.5</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>14.4</v>
       </c>
       <c r="E26" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F26" t="n">
         <v>6</v>
       </c>
     </row>
@@ -965,18 +885,15 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="C27" t="n">
-        <v>240</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>11.7</v>
       </c>
       <c r="E27" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F27" t="n">
         <v>80</v>
       </c>
     </row>
@@ -985,18 +902,15 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>75</v>
+        <v>242.5</v>
       </c>
       <c r="C28" t="n">
-        <v>242.5</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="F28" t="n">
         <v>68</v>
       </c>
     </row>
@@ -1005,18 +919,15 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="C29" t="n">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="E29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F29" t="n">
         <v>355</v>
       </c>
     </row>
@@ -1025,18 +936,15 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>77</v>
+        <v>247.5</v>
       </c>
       <c r="C30" t="n">
-        <v>247.5</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="E30" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F30" t="n">
         <v>160</v>
       </c>
     </row>
@@ -1045,18 +953,15 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="C31" t="n">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
-      </c>
-      <c r="F31" t="n">
         <v>1493</v>
       </c>
     </row>
@@ -1065,18 +970,15 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>79</v>
+        <v>252.5</v>
       </c>
       <c r="C32" t="n">
-        <v>252.5</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="E32" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F32" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -1085,18 +987,15 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C33" t="n">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="E33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F33" t="n">
         <v>1957</v>
       </c>
     </row>
@@ -1105,18 +1004,15 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>81</v>
+        <v>257.5</v>
       </c>
       <c r="C34" t="n">
-        <v>257.5</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>0.8</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F34" t="n">
         <v>927</v>
       </c>
     </row>
@@ -1125,18 +1021,15 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="C35" t="n">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>9</v>
+        <v>0.39</v>
       </c>
       <c r="E35" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="F35" t="n">
         <v>1067</v>
       </c>
     </row>
@@ -1145,18 +1038,15 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83</v>
+        <v>262.5</v>
       </c>
       <c r="C36" t="n">
-        <v>262.5</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>0.19</v>
       </c>
       <c r="E36" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F36" t="n">
         <v>918</v>
       </c>
     </row>
@@ -1165,18 +1055,15 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="C37" t="n">
-        <v>265</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>0.1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F37" t="n">
         <v>471</v>
       </c>
     </row>
@@ -1185,18 +1072,15 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>85</v>
+        <v>267.5</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F38" t="n">
         <v>128</v>
       </c>
     </row>
@@ -1205,18 +1089,15 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>86</v>
+        <v>270</v>
       </c>
       <c r="C39" t="n">
-        <v>270</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>9</v>
+        <v>0.04</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F39" t="n">
         <v>62</v>
       </c>
     </row>
@@ -1225,18 +1106,15 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>87</v>
+        <v>272.5</v>
       </c>
       <c r="C40" t="n">
-        <v>272.5</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>0.02</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F40" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1245,18 +1123,15 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="C41" t="n">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>0.03</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F41" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1265,18 +1140,15 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>89</v>
+        <v>277.5</v>
       </c>
       <c r="C42" t="n">
-        <v>277.5</v>
+        <v>9</v>
       </c>
       <c r="D42" t="n">
-        <v>9</v>
+        <v>0.02</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F42" t="n">
         <v>97</v>
       </c>
     </row>
@@ -1285,18 +1157,15 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="C43" t="n">
-        <v>280</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>0.02</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F43" t="n">
         <v>46</v>
       </c>
     </row>
@@ -1305,36 +1174,30 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="C44" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
-      </c>
-      <c r="E44" t="n">
         <v>110.95</v>
       </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="C45" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="D45" t="n">
-        <v>16</v>
+        <v>51.95</v>
       </c>
       <c r="E45" t="n">
-        <v>51.95</v>
-      </c>
-      <c r="F45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,18 +1206,15 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="C46" t="n">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="D46" t="n">
-        <v>16</v>
+        <v>41.58</v>
       </c>
       <c r="E46" t="n">
-        <v>41.58</v>
-      </c>
-      <c r="F46" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1363,18 +1223,15 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="C47" t="n">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>16</v>
+        <v>31.7</v>
       </c>
       <c r="E47" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1383,18 +1240,15 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="C48" t="n">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="D48" t="n">
-        <v>16</v>
+        <v>21.91</v>
       </c>
       <c r="E48" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="F48" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1403,18 +1257,15 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>116</v>
+        <v>232.5</v>
       </c>
       <c r="C49" t="n">
-        <v>232.5</v>
+        <v>16</v>
       </c>
       <c r="D49" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>20</v>
-      </c>
-      <c r="F49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1423,18 +1274,15 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="C50" t="n">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>16.86</v>
       </c>
       <c r="E50" t="n">
-        <v>16.86</v>
-      </c>
-      <c r="F50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1443,18 +1291,15 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>118</v>
+        <v>237.5</v>
       </c>
       <c r="C51" t="n">
-        <v>237.5</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="E51" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F51" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1463,18 +1308,15 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="C52" t="n">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>16</v>
+        <v>12.7</v>
       </c>
       <c r="E52" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F52" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1483,18 +1325,15 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>120</v>
+        <v>242.5</v>
       </c>
       <c r="C53" t="n">
-        <v>242.5</v>
+        <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>10.4</v>
       </c>
       <c r="E53" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F53" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1503,18 +1342,15 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="C54" t="n">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="E54" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="F54" t="n">
         <v>37</v>
       </c>
     </row>
@@ -1523,18 +1359,15 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>122</v>
+        <v>247.5</v>
       </c>
       <c r="C55" t="n">
-        <v>247.5</v>
+        <v>16</v>
       </c>
       <c r="D55" t="n">
-        <v>16</v>
+        <v>6.6</v>
       </c>
       <c r="E55" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F55" t="n">
         <v>389</v>
       </c>
     </row>
@@ -1543,18 +1376,15 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="C56" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>5.1</v>
       </c>
       <c r="E56" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F56" t="n">
         <v>473</v>
       </c>
     </row>
@@ -1563,18 +1393,15 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>124</v>
+        <v>252.5</v>
       </c>
       <c r="C57" t="n">
-        <v>252.5</v>
+        <v>16</v>
       </c>
       <c r="D57" t="n">
-        <v>16</v>
+        <v>3.66</v>
       </c>
       <c r="E57" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="F57" t="n">
         <v>908</v>
       </c>
     </row>
@@ -1583,18 +1410,15 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="C58" t="n">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="E58" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F58" t="n">
         <v>374</v>
       </c>
     </row>
@@ -1603,18 +1427,15 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>126</v>
+        <v>257.5</v>
       </c>
       <c r="C59" t="n">
-        <v>257.5</v>
+        <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>16</v>
+        <v>1.51</v>
       </c>
       <c r="E59" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="F59" t="n">
         <v>294</v>
       </c>
     </row>
@@ -1623,18 +1444,15 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>127</v>
+        <v>260</v>
       </c>
       <c r="C60" t="n">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>16</v>
+        <v>1.03</v>
       </c>
       <c r="E60" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F60" t="n">
         <v>1178</v>
       </c>
     </row>
@@ -1643,18 +1461,15 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>128</v>
+        <v>262.5</v>
       </c>
       <c r="C61" t="n">
-        <v>262.5</v>
+        <v>16</v>
       </c>
       <c r="D61" t="n">
-        <v>16</v>
+        <v>0.62</v>
       </c>
       <c r="E61" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F61" t="n">
         <v>76</v>
       </c>
     </row>
@@ -1663,18 +1478,15 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="C62" t="n">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="D62" t="n">
-        <v>16</v>
+        <v>0.37</v>
       </c>
       <c r="E62" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="F62" t="n">
         <v>343</v>
       </c>
     </row>
@@ -1683,18 +1495,15 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>130</v>
+        <v>267.5</v>
       </c>
       <c r="C63" t="n">
-        <v>267.5</v>
+        <v>16</v>
       </c>
       <c r="D63" t="n">
-        <v>16</v>
+        <v>0.24</v>
       </c>
       <c r="E63" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F63" t="n">
         <v>66</v>
       </c>
     </row>
@@ -1703,18 +1512,15 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="C64" t="n">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="D64" t="n">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="E64" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F64" t="n">
         <v>56</v>
       </c>
     </row>
@@ -1723,18 +1529,15 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="C65" t="n">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>0.09</v>
       </c>
       <c r="E65" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1546,15 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="C66" t="n">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="D66" t="n">
-        <v>16</v>
+        <v>0.06</v>
       </c>
       <c r="E66" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F66" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1763,18 +1563,15 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="C67" t="n">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="D67" t="n">
-        <v>16</v>
+        <v>0.02</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1783,18 +1580,15 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C68" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="D68" t="n">
-        <v>23</v>
+        <v>101.6</v>
       </c>
       <c r="E68" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="F68" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1803,18 +1597,15 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C69" t="n">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="D69" t="n">
-        <v>23</v>
+        <v>81.31</v>
       </c>
       <c r="E69" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="F69" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1823,18 +1614,15 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C70" t="n">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="D70" t="n">
-        <v>23</v>
+        <v>76.2</v>
       </c>
       <c r="E70" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="F70" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1843,18 +1631,15 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C71" t="n">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="D71" t="n">
-        <v>23</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="F71" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1863,18 +1648,15 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C72" t="n">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="D72" t="n">
-        <v>23</v>
+        <v>61.2</v>
       </c>
       <c r="E72" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="F72" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1883,18 +1665,15 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C73" t="n">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="D73" t="n">
-        <v>23</v>
+        <v>41.52</v>
       </c>
       <c r="E73" t="n">
-        <v>41.52</v>
-      </c>
-      <c r="F73" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1903,18 +1682,15 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="C74" t="n">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D74" t="n">
-        <v>23</v>
+        <v>36.75</v>
       </c>
       <c r="E74" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="F74" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1923,18 +1699,15 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="C75" t="n">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>23</v>
+        <v>31.95</v>
       </c>
       <c r="E75" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="F75" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1943,18 +1716,15 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="C76" t="n">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="D76" t="n">
-        <v>23</v>
+        <v>27.06</v>
       </c>
       <c r="E76" t="n">
-        <v>27.06</v>
-      </c>
-      <c r="F76" t="n">
         <v>33</v>
       </c>
     </row>
@@ -1963,18 +1733,15 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="C77" t="n">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="D77" t="n">
-        <v>23</v>
+        <v>22.15</v>
       </c>
       <c r="E77" t="n">
-        <v>22.15</v>
-      </c>
-      <c r="F77" t="n">
         <v>97</v>
       </c>
     </row>
@@ -1983,36 +1750,30 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>176</v>
+        <v>232.5</v>
       </c>
       <c r="C78" t="n">
-        <v>232.5</v>
+        <v>23</v>
       </c>
       <c r="D78" t="n">
-        <v>23</v>
-      </c>
-      <c r="E78" t="n">
         <v>20.4</v>
       </c>
-      <c r="F78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="C79" t="n">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D79" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E79" t="n">
-        <v>18</v>
-      </c>
-      <c r="F79" t="n">
         <v>63</v>
       </c>
     </row>
@@ -2021,36 +1782,30 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>178</v>
+        <v>237.5</v>
       </c>
       <c r="C80" t="n">
-        <v>237.5</v>
+        <v>23</v>
       </c>
       <c r="D80" t="n">
-        <v>23</v>
-      </c>
-      <c r="E80" t="n">
         <v>15.75</v>
       </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="C81" t="n">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="D81" t="n">
-        <v>23</v>
+        <v>13.2</v>
       </c>
       <c r="E81" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F81" t="n">
         <v>811</v>
       </c>
     </row>
@@ -2059,36 +1814,30 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>180</v>
+        <v>242.5</v>
       </c>
       <c r="C82" t="n">
-        <v>242.5</v>
+        <v>23</v>
       </c>
       <c r="D82" t="n">
-        <v>23</v>
-      </c>
-      <c r="E82" t="n">
         <v>10.85</v>
       </c>
-      <c r="F82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="C83" t="n">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="D83" t="n">
-        <v>23</v>
+        <v>9.52</v>
       </c>
       <c r="E83" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F83" t="n">
         <v>400</v>
       </c>
     </row>
@@ -2097,36 +1846,30 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>182</v>
+        <v>247.5</v>
       </c>
       <c r="C84" t="n">
-        <v>247.5</v>
+        <v>23</v>
       </c>
       <c r="D84" t="n">
-        <v>23</v>
-      </c>
-      <c r="E84" t="n">
         <v>7.65</v>
       </c>
-      <c r="F84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="C85" t="n">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="D85" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
-      </c>
-      <c r="F85" t="n">
         <v>2499</v>
       </c>
     </row>
@@ -2135,36 +1878,30 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>184</v>
+        <v>252.5</v>
       </c>
       <c r="C86" t="n">
-        <v>252.5</v>
+        <v>23</v>
       </c>
       <c r="D86" t="n">
-        <v>23</v>
-      </c>
-      <c r="E86" t="n">
         <v>4.65</v>
       </c>
-      <c r="F86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="C87" t="n">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="D87" t="n">
-        <v>23</v>
+        <v>3.47</v>
       </c>
       <c r="E87" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="F87" t="n">
         <v>2246</v>
       </c>
     </row>
@@ -2173,36 +1910,30 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>186</v>
+        <v>257.5</v>
       </c>
       <c r="C88" t="n">
-        <v>257.5</v>
+        <v>23</v>
       </c>
       <c r="D88" t="n">
-        <v>23</v>
-      </c>
-      <c r="E88" t="n">
         <v>2.46</v>
       </c>
-      <c r="F88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="C89" t="n">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="D89" t="n">
-        <v>23</v>
+        <v>1.75</v>
       </c>
       <c r="E89" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F89" t="n">
         <v>3216</v>
       </c>
     </row>
@@ -2211,36 +1942,30 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>188</v>
+        <v>262.5</v>
       </c>
       <c r="C90" t="n">
-        <v>262.5</v>
+        <v>23</v>
       </c>
       <c r="D90" t="n">
-        <v>23</v>
-      </c>
-      <c r="E90" t="n">
         <v>1.19</v>
       </c>
-      <c r="F90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="C91" t="n">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="D91" t="n">
-        <v>23</v>
+        <v>0.82</v>
       </c>
       <c r="E91" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F91" t="n">
         <v>913</v>
       </c>
     </row>
@@ -2249,36 +1974,30 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>190</v>
+        <v>267.5</v>
       </c>
       <c r="C92" t="n">
-        <v>267.5</v>
+        <v>23</v>
       </c>
       <c r="D92" t="n">
-        <v>23</v>
-      </c>
-      <c r="E92" t="n">
         <v>0.53</v>
       </c>
-      <c r="F92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C93" t="n">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="D93" t="n">
-        <v>23</v>
+        <v>0.36</v>
       </c>
       <c r="E93" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F93" t="n">
         <v>723</v>
       </c>
     </row>
@@ -2287,18 +2006,15 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="C94" t="n">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="D94" t="n">
-        <v>23</v>
+        <v>0.18</v>
       </c>
       <c r="E94" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F94" t="n">
         <v>462</v>
       </c>
     </row>
@@ -2307,18 +2023,15 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="C95" t="n">
-        <v>280</v>
+        <v>23</v>
       </c>
       <c r="D95" t="n">
-        <v>23</v>
+        <v>0.1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F95" t="n">
         <v>315</v>
       </c>
     </row>
@@ -2327,18 +2040,15 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="C96" t="n">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="D96" t="n">
-        <v>23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F96" t="n">
         <v>81</v>
       </c>
     </row>
@@ -2347,18 +2057,15 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="C97" t="n">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="D97" t="n">
-        <v>23</v>
+        <v>0.05</v>
       </c>
       <c r="E97" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F97" t="n">
         <v>168</v>
       </c>
     </row>
@@ -2367,18 +2074,15 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="C98" t="n">
-        <v>295</v>
+        <v>23</v>
       </c>
       <c r="D98" t="n">
-        <v>23</v>
+        <v>0.04</v>
       </c>
       <c r="E98" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F98" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2387,18 +2091,15 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="C99" t="n">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="D99" t="n">
-        <v>23</v>
+        <v>0.03</v>
       </c>
       <c r="E99" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F99" t="n">
         <v>213</v>
       </c>
     </row>
@@ -2407,18 +2108,15 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="C100" t="n">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="D100" t="n">
-        <v>23</v>
+        <v>0.02</v>
       </c>
       <c r="E100" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2427,18 +2125,15 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="C101" t="n">
-        <v>315</v>
+        <v>23</v>
       </c>
       <c r="D101" t="n">
-        <v>23</v>
+        <v>0.02</v>
       </c>
       <c r="E101" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2447,18 +2142,15 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C102" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="D102" t="n">
-        <v>30</v>
+        <v>41.63</v>
       </c>
       <c r="E102" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="F102" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2467,18 +2159,15 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C103" t="n">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="D103" t="n">
-        <v>30</v>
+        <v>22.75</v>
       </c>
       <c r="E103" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="F103" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2487,18 +2176,15 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C104" t="n">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="D104" t="n">
-        <v>30</v>
+        <v>17.9</v>
       </c>
       <c r="E104" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F104" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2507,18 +2193,15 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>227</v>
+        <v>237.5</v>
       </c>
       <c r="C105" t="n">
-        <v>237.5</v>
+        <v>30</v>
       </c>
       <c r="D105" t="n">
-        <v>30</v>
+        <v>16.15</v>
       </c>
       <c r="E105" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="F105" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2527,18 +2210,15 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C106" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="D106" t="n">
-        <v>30</v>
+        <v>13.85</v>
       </c>
       <c r="E106" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="F106" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2547,18 +2227,15 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C107" t="n">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="D107" t="n">
-        <v>30</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F107" t="n">
         <v>38</v>
       </c>
     </row>
@@ -2567,18 +2244,15 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>231</v>
+        <v>247.5</v>
       </c>
       <c r="C108" t="n">
-        <v>247.5</v>
+        <v>30</v>
       </c>
       <c r="D108" t="n">
-        <v>30</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F108" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2587,18 +2261,15 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C109" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="D109" t="n">
-        <v>30</v>
+        <v>6.9</v>
       </c>
       <c r="E109" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F109" t="n">
         <v>71</v>
       </c>
     </row>
@@ -2607,18 +2278,15 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>233</v>
+        <v>252.5</v>
       </c>
       <c r="C110" t="n">
-        <v>252.5</v>
+        <v>30</v>
       </c>
       <c r="D110" t="n">
-        <v>30</v>
+        <v>5.56</v>
       </c>
       <c r="E110" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="F110" t="n">
         <v>138</v>
       </c>
     </row>
@@ -2627,18 +2295,15 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="C111" t="n">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="D111" t="n">
-        <v>30</v>
+        <v>4.25</v>
       </c>
       <c r="E111" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F111" t="n">
         <v>93</v>
       </c>
     </row>
@@ -2647,18 +2312,15 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>235</v>
+        <v>257.5</v>
       </c>
       <c r="C112" t="n">
-        <v>257.5</v>
+        <v>30</v>
       </c>
       <c r="D112" t="n">
-        <v>30</v>
+        <v>3.2</v>
       </c>
       <c r="E112" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F112" t="n">
         <v>618</v>
       </c>
     </row>
@@ -2667,18 +2329,15 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C113" t="n">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="D113" t="n">
-        <v>30</v>
+        <v>2.3</v>
       </c>
       <c r="E113" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F113" t="n">
         <v>610</v>
       </c>
     </row>
@@ -2687,18 +2346,15 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>237</v>
+        <v>262.5</v>
       </c>
       <c r="C114" t="n">
-        <v>262.5</v>
+        <v>30</v>
       </c>
       <c r="D114" t="n">
-        <v>30</v>
+        <v>1.67</v>
       </c>
       <c r="E114" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F114" t="n">
         <v>90</v>
       </c>
     </row>
@@ -2707,18 +2363,15 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="C115" t="n">
-        <v>265</v>
+        <v>30</v>
       </c>
       <c r="D115" t="n">
-        <v>30</v>
+        <v>1.2</v>
       </c>
       <c r="E115" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F115" t="n">
         <v>301</v>
       </c>
     </row>
@@ -2727,18 +2380,15 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>239</v>
+        <v>267.5</v>
       </c>
       <c r="C116" t="n">
-        <v>267.5</v>
+        <v>30</v>
       </c>
       <c r="D116" t="n">
-        <v>30</v>
+        <v>0.87</v>
       </c>
       <c r="E116" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="F116" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2747,18 +2397,15 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C117" t="n">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="D117" t="n">
-        <v>30</v>
+        <v>0.57</v>
       </c>
       <c r="E117" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="F117" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2767,18 +2414,15 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>241</v>
+        <v>272.5</v>
       </c>
       <c r="C118" t="n">
-        <v>272.5</v>
+        <v>30</v>
       </c>
       <c r="D118" t="n">
-        <v>30</v>
+        <v>0.42</v>
       </c>
       <c r="E118" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F118" t="n">
         <v>303</v>
       </c>
     </row>
@@ -2787,18 +2431,15 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="C119" t="n">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="D119" t="n">
-        <v>30</v>
+        <v>0.32</v>
       </c>
       <c r="E119" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="F119" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2807,18 +2448,15 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="C120" t="n">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="D120" t="n">
-        <v>30</v>
+        <v>0.2</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F120" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2827,18 +2465,15 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="C121" t="n">
-        <v>285</v>
+        <v>30</v>
       </c>
       <c r="D121" t="n">
-        <v>30</v>
+        <v>0.12</v>
       </c>
       <c r="E121" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2847,18 +2482,15 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="C122" t="n">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="D122" t="n">
-        <v>30</v>
+        <v>0.08</v>
       </c>
       <c r="E122" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F122" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2867,18 +2499,15 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="C123" t="n">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="D123" t="n">
-        <v>37</v>
+        <v>27.68</v>
       </c>
       <c r="E123" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="F123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2887,18 +2516,15 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="C124" t="n">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="D124" t="n">
-        <v>37</v>
+        <v>22.75</v>
       </c>
       <c r="E124" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="F124" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2907,18 +2533,15 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C125" t="n">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="D125" t="n">
-        <v>37</v>
+        <v>18.5</v>
       </c>
       <c r="E125" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F125" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2927,18 +2550,15 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C126" t="n">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="D126" t="n">
-        <v>37</v>
+        <v>14.9</v>
       </c>
       <c r="E126" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F126" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2947,18 +2567,15 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>262</v>
+        <v>242.5</v>
       </c>
       <c r="C127" t="n">
-        <v>242.5</v>
+        <v>37</v>
       </c>
       <c r="D127" t="n">
-        <v>37</v>
+        <v>12.44</v>
       </c>
       <c r="E127" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="F127" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2967,18 +2584,15 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C128" t="n">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="D128" t="n">
-        <v>37</v>
+        <v>10.9</v>
       </c>
       <c r="E128" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F128" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2987,18 +2601,15 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>264</v>
+        <v>247.5</v>
       </c>
       <c r="C129" t="n">
-        <v>247.5</v>
+        <v>37</v>
       </c>
       <c r="D129" t="n">
-        <v>37</v>
+        <v>8.94</v>
       </c>
       <c r="E129" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="F129" t="n">
         <v>126</v>
       </c>
     </row>
@@ -3007,18 +2618,15 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C130" t="n">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="D130" t="n">
-        <v>37</v>
+        <v>7.7</v>
       </c>
       <c r="E130" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F130" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3027,18 +2635,15 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>266</v>
+        <v>252.5</v>
       </c>
       <c r="C131" t="n">
-        <v>252.5</v>
+        <v>37</v>
       </c>
       <c r="D131" t="n">
-        <v>37</v>
+        <v>6.23</v>
       </c>
       <c r="E131" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="F131" t="n">
         <v>122</v>
       </c>
     </row>
@@ -3047,18 +2652,15 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C132" t="n">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="D132" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E132" t="n">
-        <v>5</v>
-      </c>
-      <c r="F132" t="n">
         <v>95</v>
       </c>
     </row>
@@ -3067,18 +2669,15 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>268</v>
+        <v>257.5</v>
       </c>
       <c r="C133" t="n">
-        <v>257.5</v>
+        <v>37</v>
       </c>
       <c r="D133" t="n">
-        <v>37</v>
+        <v>3.8</v>
       </c>
       <c r="E133" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F133" t="n">
         <v>63</v>
       </c>
     </row>
@@ -3087,18 +2686,15 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C134" t="n">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="D134" t="n">
-        <v>37</v>
+        <v>2.9</v>
       </c>
       <c r="E134" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F134" t="n">
         <v>49</v>
       </c>
     </row>
@@ -3107,18 +2703,15 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>270</v>
+        <v>262.5</v>
       </c>
       <c r="C135" t="n">
-        <v>262.5</v>
+        <v>37</v>
       </c>
       <c r="D135" t="n">
-        <v>37</v>
+        <v>2.2</v>
       </c>
       <c r="E135" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F135" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3127,18 +2720,15 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C136" t="n">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c r="D136" t="n">
-        <v>37</v>
+        <v>1.7</v>
       </c>
       <c r="E136" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F136" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3147,18 +2737,15 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C137" t="n">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="D137" t="n">
-        <v>37</v>
+        <v>0.92</v>
       </c>
       <c r="E137" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="F137" t="n">
         <v>258</v>
       </c>
     </row>
@@ -3167,18 +2754,15 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C138" t="n">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="D138" t="n">
-        <v>37</v>
+        <v>0.48</v>
       </c>
       <c r="E138" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F138" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3187,18 +2771,15 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C139" t="n">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="D139" t="n">
-        <v>37</v>
+        <v>0.3</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F139" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3207,18 +2788,15 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C140" t="n">
-        <v>285</v>
+        <v>37</v>
       </c>
       <c r="D140" t="n">
-        <v>37</v>
+        <v>0.19</v>
       </c>
       <c r="E140" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F140" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3227,18 +2805,15 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C141" t="n">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="D141" t="n">
-        <v>37</v>
+        <v>0.16</v>
       </c>
       <c r="E141" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,18 +2822,15 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C142" t="n">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="D142" t="n">
-        <v>37</v>
+        <v>0.14</v>
       </c>
       <c r="E142" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F142" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3267,18 +2839,15 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="C143" t="n">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="D143" t="n">
-        <v>51</v>
+        <v>87.05</v>
       </c>
       <c r="E143" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="F143" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3287,18 +2856,15 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="C144" t="n">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="D144" t="n">
-        <v>51</v>
+        <v>67.19</v>
       </c>
       <c r="E144" t="n">
-        <v>67.19</v>
-      </c>
-      <c r="F144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3307,18 +2873,15 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="C145" t="n">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="D145" t="n">
-        <v>51</v>
+        <v>62.5</v>
       </c>
       <c r="E145" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="F145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3327,18 +2890,15 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c r="C146" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="D146" t="n">
-        <v>51</v>
+        <v>52.55</v>
       </c>
       <c r="E146" t="n">
-        <v>52.55</v>
-      </c>
-      <c r="F146" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3347,18 +2907,15 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="C147" t="n">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="D147" t="n">
-        <v>51</v>
+        <v>42.55</v>
       </c>
       <c r="E147" t="n">
-        <v>42.55</v>
-      </c>
-      <c r="F147" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3367,18 +2924,15 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="C148" t="n">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="D148" t="n">
-        <v>51</v>
+        <v>33.05</v>
       </c>
       <c r="E148" t="n">
-        <v>33.05</v>
-      </c>
-      <c r="F148" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3387,18 +2941,15 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="C149" t="n">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="D149" t="n">
-        <v>51</v>
+        <v>28.2</v>
       </c>
       <c r="E149" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F149" t="n">
         <v>26</v>
       </c>
     </row>
@@ -3407,18 +2958,15 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>301</v>
+        <v>230</v>
       </c>
       <c r="C150" t="n">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c r="D150" t="n">
-        <v>51</v>
+        <v>23.48</v>
       </c>
       <c r="E150" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="F150" t="n">
         <v>49</v>
       </c>
     </row>
@@ -3427,18 +2975,15 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="C151" t="n">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="D151" t="n">
-        <v>51</v>
+        <v>19.77</v>
       </c>
       <c r="E151" t="n">
-        <v>19.77</v>
-      </c>
-      <c r="F151" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3447,18 +2992,15 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="C152" t="n">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="D152" t="n">
-        <v>51</v>
+        <v>15.78</v>
       </c>
       <c r="E152" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="F152" t="n">
         <v>199</v>
       </c>
     </row>
@@ -3467,18 +3009,15 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="C153" t="n">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="D153" t="n">
-        <v>51</v>
+        <v>12.15</v>
       </c>
       <c r="E153" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F153" t="n">
         <v>180</v>
       </c>
     </row>
@@ -3487,18 +3026,15 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="C154" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="D154" t="n">
-        <v>51</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E154" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F154" t="n">
         <v>490</v>
       </c>
     </row>
@@ -3507,18 +3043,15 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="C155" t="n">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="D155" t="n">
-        <v>51</v>
+        <v>6.4</v>
       </c>
       <c r="E155" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F155" t="n">
         <v>1283</v>
       </c>
     </row>
@@ -3527,18 +3060,15 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C156" t="n">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="D156" t="n">
-        <v>51</v>
+        <v>4.3</v>
       </c>
       <c r="E156" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F156" t="n">
         <v>1181</v>
       </c>
     </row>
@@ -3547,18 +3077,15 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="C157" t="n">
-        <v>265</v>
+        <v>51</v>
       </c>
       <c r="D157" t="n">
-        <v>51</v>
+        <v>2.7</v>
       </c>
       <c r="E157" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F157" t="n">
         <v>953</v>
       </c>
     </row>
@@ -3567,18 +3094,15 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="C158" t="n">
-        <v>270</v>
+        <v>51</v>
       </c>
       <c r="D158" t="n">
-        <v>51</v>
+        <v>1.68</v>
       </c>
       <c r="E158" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="F158" t="n">
         <v>703</v>
       </c>
     </row>
@@ -3587,18 +3111,15 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="C159" t="n">
-        <v>275</v>
+        <v>51</v>
       </c>
       <c r="D159" t="n">
-        <v>51</v>
+        <v>1.02</v>
       </c>
       <c r="E159" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F159" t="n">
         <v>403</v>
       </c>
     </row>
@@ -3607,18 +3128,15 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="C160" t="n">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c r="D160" t="n">
-        <v>51</v>
+        <v>0.62</v>
       </c>
       <c r="E160" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F160" t="n">
         <v>160</v>
       </c>
     </row>
@@ -3627,18 +3145,15 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="C161" t="n">
-        <v>285</v>
+        <v>51</v>
       </c>
       <c r="D161" t="n">
-        <v>51</v>
+        <v>0.38</v>
       </c>
       <c r="E161" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F161" t="n">
         <v>36</v>
       </c>
     </row>
@@ -3647,18 +3162,15 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C162" t="n">
-        <v>290</v>
+        <v>51</v>
       </c>
       <c r="D162" t="n">
-        <v>51</v>
+        <v>0.27</v>
       </c>
       <c r="E162" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F162" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3667,18 +3179,15 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C163" t="n">
-        <v>295</v>
+        <v>51</v>
       </c>
       <c r="D163" t="n">
-        <v>51</v>
+        <v>0.2</v>
       </c>
       <c r="E163" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F163" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3687,18 +3196,15 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C164" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="D164" t="n">
-        <v>51</v>
+        <v>0.16</v>
       </c>
       <c r="E164" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F164" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3707,18 +3213,15 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C165" t="n">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="D165" t="n">
-        <v>51</v>
+        <v>0.09</v>
       </c>
       <c r="E165" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3727,36 +3230,30 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>336</v>
+        <v>125</v>
       </c>
       <c r="C166" t="n">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="D166" t="n">
-        <v>86</v>
-      </c>
-      <c r="E166" t="n">
         <v>126.9</v>
       </c>
-      <c r="F166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>337</v>
+        <v>130</v>
       </c>
       <c r="C167" t="n">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="D167" t="n">
-        <v>86</v>
+        <v>121.35</v>
       </c>
       <c r="E167" t="n">
-        <v>121.35</v>
-      </c>
-      <c r="F167" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3765,54 +3262,45 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="C168" t="n">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="D168" t="n">
-        <v>86</v>
-      </c>
-      <c r="E168" t="n">
         <v>111.8</v>
       </c>
-      <c r="F168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>341</v>
+        <v>155</v>
       </c>
       <c r="C169" t="n">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="D169" t="n">
-        <v>86</v>
-      </c>
-      <c r="E169" t="n">
         <v>96.75</v>
       </c>
-      <c r="F169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>353</v>
+        <v>215</v>
       </c>
       <c r="C170" t="n">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="D170" t="n">
-        <v>86</v>
+        <v>39.22</v>
       </c>
       <c r="E170" t="n">
-        <v>39.22</v>
-      </c>
-      <c r="F170" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3821,18 +3309,15 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>354</v>
+        <v>220</v>
       </c>
       <c r="C171" t="n">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="D171" t="n">
-        <v>86</v>
+        <v>34.6</v>
       </c>
       <c r="E171" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3841,18 +3326,15 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="C172" t="n">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="D172" t="n">
-        <v>86</v>
+        <v>26.4</v>
       </c>
       <c r="E172" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F172" t="n">
         <v>218</v>
       </c>
     </row>
@@ -3861,18 +3343,15 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c r="C173" t="n">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="D173" t="n">
-        <v>86</v>
+        <v>22.46</v>
       </c>
       <c r="E173" t="n">
-        <v>22.46</v>
-      </c>
-      <c r="F173" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3881,18 +3360,15 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>358</v>
+        <v>240</v>
       </c>
       <c r="C174" t="n">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="D174" t="n">
-        <v>86</v>
+        <v>18.45</v>
       </c>
       <c r="E174" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="F174" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3901,18 +3377,15 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="C175" t="n">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="D175" t="n">
-        <v>86</v>
+        <v>15.35</v>
       </c>
       <c r="E175" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="F175" t="n">
         <v>70</v>
       </c>
     </row>
@@ -3921,18 +3394,15 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="C176" t="n">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="D176" t="n">
-        <v>86</v>
+        <v>12.3</v>
       </c>
       <c r="E176" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F176" t="n">
         <v>306</v>
       </c>
     </row>
@@ -3941,18 +3411,15 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="C177" t="n">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c r="D177" t="n">
-        <v>86</v>
+        <v>9.6</v>
       </c>
       <c r="E177" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F177" t="n">
         <v>177</v>
       </c>
     </row>
@@ -3961,18 +3428,15 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>362</v>
+        <v>260</v>
       </c>
       <c r="C178" t="n">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D178" t="n">
-        <v>86</v>
+        <v>7.41</v>
       </c>
       <c r="E178" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="F178" t="n">
         <v>291</v>
       </c>
     </row>
@@ -3981,18 +3445,15 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>363</v>
+        <v>265</v>
       </c>
       <c r="C179" t="n">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="D179" t="n">
-        <v>86</v>
+        <v>5.51</v>
       </c>
       <c r="E179" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="F179" t="n">
         <v>319</v>
       </c>
     </row>
@@ -4001,18 +3462,15 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="C180" t="n">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="D180" t="n">
-        <v>86</v>
+        <v>4.05</v>
       </c>
       <c r="E180" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="F180" t="n">
         <v>93</v>
       </c>
     </row>
@@ -4021,18 +3479,15 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="C181" t="n">
-        <v>275</v>
+        <v>86</v>
       </c>
       <c r="D181" t="n">
-        <v>86</v>
+        <v>2.93</v>
       </c>
       <c r="E181" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="F181" t="n">
         <v>129</v>
       </c>
     </row>
@@ -4041,18 +3496,15 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="C182" t="n">
-        <v>280</v>
+        <v>86</v>
       </c>
       <c r="D182" t="n">
-        <v>86</v>
+        <v>1.98</v>
       </c>
       <c r="E182" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="F182" t="n">
         <v>124</v>
       </c>
     </row>
@@ -4061,18 +3513,15 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>367</v>
+        <v>285</v>
       </c>
       <c r="C183" t="n">
-        <v>285</v>
+        <v>86</v>
       </c>
       <c r="D183" t="n">
-        <v>86</v>
+        <v>1.45</v>
       </c>
       <c r="E183" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="F183" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4081,18 +3530,15 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>368</v>
+        <v>290</v>
       </c>
       <c r="C184" t="n">
-        <v>290</v>
+        <v>86</v>
       </c>
       <c r="D184" t="n">
-        <v>86</v>
+        <v>1.07</v>
       </c>
       <c r="E184" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="F184" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4101,18 +3547,15 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="C185" t="n">
-        <v>295</v>
+        <v>86</v>
       </c>
       <c r="D185" t="n">
-        <v>86</v>
+        <v>0.79</v>
       </c>
       <c r="E185" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F185" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4121,18 +3564,15 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="C186" t="n">
-        <v>300</v>
+        <v>86</v>
       </c>
       <c r="D186" t="n">
-        <v>86</v>
+        <v>0.6</v>
       </c>
       <c r="E186" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F186" t="n">
         <v>67</v>
       </c>
     </row>
@@ -4141,18 +3581,15 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="C187" t="n">
-        <v>310</v>
+        <v>86</v>
       </c>
       <c r="D187" t="n">
-        <v>86</v>
+        <v>0.37</v>
       </c>
       <c r="E187" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="F187" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4161,18 +3598,15 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="C188" t="n">
-        <v>320</v>
+        <v>86</v>
       </c>
       <c r="D188" t="n">
-        <v>86</v>
+        <v>0.3</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F188" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4181,36 +3615,30 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="C189" t="n">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="D189" t="n">
-        <v>86</v>
-      </c>
-      <c r="E189" t="n">
         <v>0.18</v>
       </c>
-      <c r="F189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>395</v>
+        <v>170</v>
       </c>
       <c r="C190" t="n">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D190" t="n">
-        <v>114</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E190" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="F190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,18 +3647,15 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>401</v>
+        <v>200</v>
       </c>
       <c r="C191" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="D191" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E191" t="n">
-        <v>54</v>
-      </c>
-      <c r="F191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4239,18 +3664,15 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>402</v>
+        <v>205</v>
       </c>
       <c r="C192" t="n">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="D192" t="n">
-        <v>114</v>
+        <v>49.38</v>
       </c>
       <c r="E192" t="n">
-        <v>49.38</v>
-      </c>
-      <c r="F192" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4259,18 +3681,15 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>404</v>
+        <v>215</v>
       </c>
       <c r="C193" t="n">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="D193" t="n">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="E193" t="n">
-        <v>40</v>
-      </c>
-      <c r="F193" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4279,18 +3698,15 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>405</v>
+        <v>220</v>
       </c>
       <c r="C194" t="n">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="D194" t="n">
-        <v>114</v>
+        <v>35.76</v>
       </c>
       <c r="E194" t="n">
-        <v>35.76</v>
-      </c>
-      <c r="F194" t="n">
         <v>73</v>
       </c>
     </row>
@@ -4299,18 +3715,15 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>406</v>
+        <v>225</v>
       </c>
       <c r="C195" t="n">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="D195" t="n">
-        <v>114</v>
+        <v>31.44</v>
       </c>
       <c r="E195" t="n">
-        <v>31.44</v>
-      </c>
-      <c r="F195" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4319,18 +3732,15 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>407</v>
+        <v>230</v>
       </c>
       <c r="C196" t="n">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="D196" t="n">
-        <v>114</v>
+        <v>27.33</v>
       </c>
       <c r="E196" t="n">
-        <v>27.33</v>
-      </c>
-      <c r="F196" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4339,18 +3749,15 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>408</v>
+        <v>235</v>
       </c>
       <c r="C197" t="n">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="D197" t="n">
-        <v>114</v>
+        <v>23.55</v>
       </c>
       <c r="E197" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="F197" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4359,18 +3766,15 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>409</v>
+        <v>240</v>
       </c>
       <c r="C198" t="n">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="D198" t="n">
-        <v>114</v>
+        <v>20.2</v>
       </c>
       <c r="E198" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F198" t="n">
         <v>71</v>
       </c>
     </row>
@@ -4379,18 +3783,15 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>410</v>
+        <v>245</v>
       </c>
       <c r="C199" t="n">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="D199" t="n">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="E199" t="n">
-        <v>17</v>
-      </c>
-      <c r="F199" t="n">
         <v>43</v>
       </c>
     </row>
@@ -4399,18 +3800,15 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>411</v>
+        <v>250</v>
       </c>
       <c r="C200" t="n">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="D200" t="n">
-        <v>114</v>
+        <v>13.95</v>
       </c>
       <c r="E200" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="F200" t="n">
         <v>52</v>
       </c>
     </row>
@@ -4419,18 +3817,15 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>412</v>
+        <v>255</v>
       </c>
       <c r="C201" t="n">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="D201" t="n">
-        <v>114</v>
+        <v>11.35</v>
       </c>
       <c r="E201" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="F201" t="n">
         <v>334</v>
       </c>
     </row>
@@ -4439,18 +3834,15 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>413</v>
+        <v>260</v>
       </c>
       <c r="C202" t="n">
-        <v>260</v>
+        <v>114</v>
       </c>
       <c r="D202" t="n">
-        <v>114</v>
+        <v>9.1</v>
       </c>
       <c r="E202" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="F202" t="n">
         <v>625</v>
       </c>
     </row>
@@ -4459,18 +3851,15 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>414</v>
+        <v>265</v>
       </c>
       <c r="C203" t="n">
-        <v>265</v>
+        <v>114</v>
       </c>
       <c r="D203" t="n">
-        <v>114</v>
+        <v>7.15</v>
       </c>
       <c r="E203" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="F203" t="n">
         <v>185</v>
       </c>
     </row>
@@ -4479,18 +3868,15 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>415</v>
+        <v>270</v>
       </c>
       <c r="C204" t="n">
-        <v>270</v>
+        <v>114</v>
       </c>
       <c r="D204" t="n">
-        <v>114</v>
+        <v>5.6</v>
       </c>
       <c r="E204" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F204" t="n">
         <v>115</v>
       </c>
     </row>
@@ -4499,18 +3885,15 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="C205" t="n">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="D205" t="n">
-        <v>114</v>
+        <v>4.15</v>
       </c>
       <c r="E205" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F205" t="n">
         <v>111</v>
       </c>
     </row>
@@ -4519,18 +3902,15 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>417</v>
+        <v>280</v>
       </c>
       <c r="C206" t="n">
-        <v>280</v>
+        <v>114</v>
       </c>
       <c r="D206" t="n">
-        <v>114</v>
+        <v>3.15</v>
       </c>
       <c r="E206" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="F206" t="n">
         <v>212</v>
       </c>
     </row>
@@ -4539,18 +3919,15 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>418</v>
+        <v>285</v>
       </c>
       <c r="C207" t="n">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="D207" t="n">
-        <v>114</v>
+        <v>2.46</v>
       </c>
       <c r="E207" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="F207" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4559,18 +3936,15 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>419</v>
+        <v>290</v>
       </c>
       <c r="C208" t="n">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="D208" t="n">
-        <v>114</v>
+        <v>1.85</v>
       </c>
       <c r="E208" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F208" t="n">
         <v>123</v>
       </c>
     </row>
@@ -4579,18 +3953,15 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>420</v>
+        <v>295</v>
       </c>
       <c r="C209" t="n">
-        <v>295</v>
+        <v>114</v>
       </c>
       <c r="D209" t="n">
-        <v>114</v>
+        <v>1.4</v>
       </c>
       <c r="E209" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F209" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4599,18 +3970,15 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>421</v>
+        <v>300</v>
       </c>
       <c r="C210" t="n">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="D210" t="n">
-        <v>114</v>
+        <v>1.06</v>
       </c>
       <c r="E210" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="F210" t="n">
         <v>33</v>
       </c>
     </row>
@@ -4619,18 +3987,15 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>422</v>
+        <v>305</v>
       </c>
       <c r="C211" t="n">
-        <v>305</v>
+        <v>114</v>
       </c>
       <c r="D211" t="n">
-        <v>114</v>
+        <v>0.83</v>
       </c>
       <c r="E211" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F211" t="n">
         <v>168</v>
       </c>
     </row>
@@ -4639,18 +4004,15 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>423</v>
+        <v>310</v>
       </c>
       <c r="C212" t="n">
-        <v>310</v>
+        <v>114</v>
       </c>
       <c r="D212" t="n">
-        <v>114</v>
+        <v>0.66</v>
       </c>
       <c r="E212" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="F212" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4659,18 +4021,15 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>424</v>
+        <v>315</v>
       </c>
       <c r="C213" t="n">
-        <v>315</v>
+        <v>114</v>
       </c>
       <c r="D213" t="n">
-        <v>114</v>
+        <v>0.54</v>
       </c>
       <c r="E213" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="F213" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4679,18 +4038,15 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>426</v>
+        <v>325</v>
       </c>
       <c r="C214" t="n">
-        <v>325</v>
+        <v>114</v>
       </c>
       <c r="D214" t="n">
-        <v>114</v>
+        <v>0.37</v>
       </c>
       <c r="E214" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="F214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +4055,15 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>430</v>
+        <v>345</v>
       </c>
       <c r="C215" t="n">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="D215" t="n">
-        <v>114</v>
+        <v>0.22</v>
       </c>
       <c r="E215" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4719,18 +4072,15 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>432</v>
+        <v>355</v>
       </c>
       <c r="C216" t="n">
-        <v>355</v>
+        <v>114</v>
       </c>
       <c r="D216" t="n">
-        <v>114</v>
+        <v>0.17</v>
       </c>
       <c r="E216" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F216" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4739,18 +4089,15 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>440</v>
+        <v>130</v>
       </c>
       <c r="C217" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D217" t="n">
-        <v>142</v>
+        <v>121.52</v>
       </c>
       <c r="E217" t="n">
-        <v>121.52</v>
-      </c>
-      <c r="F217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4759,18 +4106,15 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>449</v>
+        <v>175</v>
       </c>
       <c r="C218" t="n">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="D218" t="n">
-        <v>142</v>
+        <v>77.65000000000001</v>
       </c>
       <c r="E218" t="n">
-        <v>77.65000000000001</v>
-      </c>
-      <c r="F218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4779,18 +4123,15 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>451</v>
+        <v>185</v>
       </c>
       <c r="C219" t="n">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="D219" t="n">
-        <v>142</v>
+        <v>68.5</v>
       </c>
       <c r="E219" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4799,18 +4140,15 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>454</v>
+        <v>200</v>
       </c>
       <c r="C220" t="n">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="D220" t="n">
-        <v>142</v>
+        <v>53.86</v>
       </c>
       <c r="E220" t="n">
-        <v>53.86</v>
-      </c>
-      <c r="F220" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4819,18 +4157,15 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>458</v>
+        <v>220</v>
       </c>
       <c r="C221" t="n">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="D221" t="n">
-        <v>142</v>
+        <v>36.62</v>
       </c>
       <c r="E221" t="n">
-        <v>36.62</v>
-      </c>
-      <c r="F221" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4839,18 +4174,15 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>459</v>
+        <v>225</v>
       </c>
       <c r="C222" t="n">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="D222" t="n">
-        <v>142</v>
+        <v>32.57</v>
       </c>
       <c r="E222" t="n">
-        <v>32.57</v>
-      </c>
-      <c r="F222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,18 +4191,15 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="C223" t="n">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="D223" t="n">
-        <v>142</v>
+        <v>28.4</v>
       </c>
       <c r="E223" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4879,18 +4208,15 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>461</v>
+        <v>235</v>
       </c>
       <c r="C224" t="n">
-        <v>235</v>
+        <v>142</v>
       </c>
       <c r="D224" t="n">
-        <v>142</v>
+        <v>25.15</v>
       </c>
       <c r="E224" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="F224" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4899,18 +4225,15 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>462</v>
+        <v>240</v>
       </c>
       <c r="C225" t="n">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="D225" t="n">
-        <v>142</v>
+        <v>21.6</v>
       </c>
       <c r="E225" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F225" t="n">
         <v>40</v>
       </c>
     </row>
@@ -4919,18 +4242,15 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>463</v>
+        <v>245</v>
       </c>
       <c r="C226" t="n">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="D226" t="n">
-        <v>142</v>
+        <v>18.3</v>
       </c>
       <c r="E226" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="F226" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4939,18 +4259,15 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>464</v>
+        <v>250</v>
       </c>
       <c r="C227" t="n">
-        <v>250</v>
+        <v>142</v>
       </c>
       <c r="D227" t="n">
-        <v>142</v>
+        <v>15.8</v>
       </c>
       <c r="E227" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F227" t="n">
         <v>276</v>
       </c>
     </row>
@@ -4959,18 +4276,15 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>465</v>
+        <v>255</v>
       </c>
       <c r="C228" t="n">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="D228" t="n">
-        <v>142</v>
+        <v>13.05</v>
       </c>
       <c r="E228" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="F228" t="n">
         <v>334</v>
       </c>
     </row>
@@ -4979,18 +4293,15 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>466</v>
+        <v>260</v>
       </c>
       <c r="C229" t="n">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="D229" t="n">
-        <v>142</v>
+        <v>10.72</v>
       </c>
       <c r="E229" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="F229" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4999,18 +4310,15 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>468</v>
+        <v>270</v>
       </c>
       <c r="C230" t="n">
-        <v>270</v>
+        <v>142</v>
       </c>
       <c r="D230" t="n">
-        <v>142</v>
+        <v>7.1</v>
       </c>
       <c r="E230" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F230" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5019,18 +4327,15 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>469</v>
+        <v>275</v>
       </c>
       <c r="C231" t="n">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="D231" t="n">
-        <v>142</v>
+        <v>5.53</v>
       </c>
       <c r="E231" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="F231" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5039,18 +4344,15 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>470</v>
+        <v>280</v>
       </c>
       <c r="C232" t="n">
-        <v>280</v>
+        <v>142</v>
       </c>
       <c r="D232" t="n">
-        <v>142</v>
+        <v>4.46</v>
       </c>
       <c r="E232" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F232" t="n">
         <v>69</v>
       </c>
     </row>
@@ -5059,18 +4361,15 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>471</v>
+        <v>285</v>
       </c>
       <c r="C233" t="n">
-        <v>285</v>
+        <v>142</v>
       </c>
       <c r="D233" t="n">
-        <v>142</v>
+        <v>3.47</v>
       </c>
       <c r="E233" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="F233" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5079,18 +4378,15 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>473</v>
+        <v>295</v>
       </c>
       <c r="C234" t="n">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="D234" t="n">
-        <v>142</v>
+        <v>2.15</v>
       </c>
       <c r="E234" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="F234" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5099,18 +4395,15 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>474</v>
+        <v>300</v>
       </c>
       <c r="C235" t="n">
-        <v>300</v>
+        <v>142</v>
       </c>
       <c r="D235" t="n">
-        <v>142</v>
+        <v>1.65</v>
       </c>
       <c r="E235" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="F235" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5119,18 +4412,15 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>478</v>
+        <v>320</v>
       </c>
       <c r="C236" t="n">
-        <v>320</v>
+        <v>142</v>
       </c>
       <c r="D236" t="n">
-        <v>142</v>
+        <v>0.76</v>
       </c>
       <c r="E236" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="F236" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5139,18 +4429,15 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>507</v>
+        <v>235</v>
       </c>
       <c r="C237" t="n">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="D237" t="n">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="E237" t="n">
-        <v>27</v>
-      </c>
-      <c r="F237" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5159,18 +4446,15 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>509</v>
+        <v>245</v>
       </c>
       <c r="C238" t="n">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="D238" t="n">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="E238" t="n">
-        <v>21</v>
-      </c>
-      <c r="F238" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5179,18 +4463,15 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>510</v>
+        <v>250</v>
       </c>
       <c r="C239" t="n">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="D239" t="n">
-        <v>177</v>
+        <v>18.2</v>
       </c>
       <c r="E239" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F239" t="n">
         <v>71</v>
       </c>
     </row>
@@ -5199,18 +4480,15 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>511</v>
+        <v>255</v>
       </c>
       <c r="C240" t="n">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="D240" t="n">
-        <v>177</v>
+        <v>15.51</v>
       </c>
       <c r="E240" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="F240" t="n">
         <v>56</v>
       </c>
     </row>
@@ -5219,18 +4497,15 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>512</v>
+        <v>260</v>
       </c>
       <c r="C241" t="n">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="D241" t="n">
-        <v>177</v>
+        <v>13.2</v>
       </c>
       <c r="E241" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F241" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5239,18 +4514,15 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>513</v>
+        <v>265</v>
       </c>
       <c r="C242" t="n">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="D242" t="n">
-        <v>177</v>
+        <v>11.2</v>
       </c>
       <c r="E242" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F242" t="n">
         <v>310</v>
       </c>
     </row>
@@ -5259,18 +4531,15 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>514</v>
+        <v>270</v>
       </c>
       <c r="C243" t="n">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="D243" t="n">
-        <v>177</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E243" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F243" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5279,18 +4548,15 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>515</v>
+        <v>275</v>
       </c>
       <c r="C244" t="n">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c r="D244" t="n">
-        <v>177</v>
+        <v>7.63</v>
       </c>
       <c r="E244" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F244" t="n">
         <v>57</v>
       </c>
     </row>
@@ -5299,18 +4565,15 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>516</v>
+        <v>280</v>
       </c>
       <c r="C245" t="n">
-        <v>280</v>
+        <v>177</v>
       </c>
       <c r="D245" t="n">
-        <v>177</v>
+        <v>6.45</v>
       </c>
       <c r="E245" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="F245" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5319,18 +4582,15 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="C246" t="n">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="D246" t="n">
-        <v>177</v>
+        <v>5.25</v>
       </c>
       <c r="E246" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="F246" t="n">
         <v>136</v>
       </c>
     </row>
@@ -5339,18 +4599,15 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>518</v>
+        <v>290</v>
       </c>
       <c r="C247" t="n">
-        <v>290</v>
+        <v>177</v>
       </c>
       <c r="D247" t="n">
-        <v>177</v>
+        <v>4.35</v>
       </c>
       <c r="E247" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F247" t="n">
         <v>88</v>
       </c>
     </row>
@@ -5359,18 +4616,15 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>519</v>
+        <v>295</v>
       </c>
       <c r="C248" t="n">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="D248" t="n">
-        <v>177</v>
+        <v>3.55</v>
       </c>
       <c r="E248" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="F248" t="n">
         <v>1652</v>
       </c>
     </row>
@@ -5379,18 +4633,15 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="C249" t="n">
-        <v>300</v>
+        <v>177</v>
       </c>
       <c r="D249" t="n">
-        <v>177</v>
+        <v>2.91</v>
       </c>
       <c r="E249" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="F249" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5399,18 +4650,15 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>521</v>
+        <v>305</v>
       </c>
       <c r="C250" t="n">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="D250" t="n">
-        <v>177</v>
+        <v>2.37</v>
       </c>
       <c r="E250" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="F250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,18 +4667,15 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>522</v>
+        <v>310</v>
       </c>
       <c r="C251" t="n">
-        <v>310</v>
+        <v>177</v>
       </c>
       <c r="D251" t="n">
-        <v>177</v>
+        <v>1.9</v>
       </c>
       <c r="E251" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F251" t="n">
         <v>1559</v>
       </c>
     </row>
@@ -5439,18 +4684,15 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>524</v>
+        <v>320</v>
       </c>
       <c r="C252" t="n">
-        <v>320</v>
+        <v>177</v>
       </c>
       <c r="D252" t="n">
-        <v>177</v>
+        <v>1.38</v>
       </c>
       <c r="E252" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="F252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5459,18 +4701,15 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>525</v>
+        <v>325</v>
       </c>
       <c r="C253" t="n">
-        <v>325</v>
+        <v>177</v>
       </c>
       <c r="D253" t="n">
-        <v>177</v>
+        <v>1.1</v>
       </c>
       <c r="E253" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F253" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5479,18 +4718,15 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>539</v>
+        <v>115</v>
       </c>
       <c r="C254" t="n">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="D254" t="n">
-        <v>240</v>
+        <v>138.25</v>
       </c>
       <c r="E254" t="n">
-        <v>138.25</v>
-      </c>
-      <c r="F254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5499,18 +4735,15 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>545</v>
+        <v>145</v>
       </c>
       <c r="C255" t="n">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="D255" t="n">
-        <v>240</v>
+        <v>107.35</v>
       </c>
       <c r="E255" t="n">
-        <v>107.35</v>
-      </c>
-      <c r="F255" t="n">
         <v>40</v>
       </c>
     </row>
@@ -5519,18 +4752,15 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>546</v>
+        <v>150</v>
       </c>
       <c r="C256" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="D256" t="n">
-        <v>240</v>
+        <v>102.6</v>
       </c>
       <c r="E256" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="F256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +4769,15 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>548</v>
+        <v>160</v>
       </c>
       <c r="C257" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="D257" t="n">
-        <v>240</v>
+        <v>92.94</v>
       </c>
       <c r="E257" t="n">
-        <v>92.94</v>
-      </c>
-      <c r="F257" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5559,18 +4786,15 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="C258" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="D258" t="n">
-        <v>240</v>
+        <v>84.11</v>
       </c>
       <c r="E258" t="n">
-        <v>84.11</v>
-      </c>
-      <c r="F258" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5579,18 +4803,15 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>555</v>
+        <v>195</v>
       </c>
       <c r="C259" t="n">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="D259" t="n">
-        <v>240</v>
+        <v>61.36</v>
       </c>
       <c r="E259" t="n">
-        <v>61.36</v>
-      </c>
-      <c r="F259" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5599,18 +4820,15 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>556</v>
+        <v>200</v>
       </c>
       <c r="C260" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="D260" t="n">
-        <v>240</v>
+        <v>56.6</v>
       </c>
       <c r="E260" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="F260" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5619,18 +4837,15 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>557</v>
+        <v>205</v>
       </c>
       <c r="C261" t="n">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="D261" t="n">
-        <v>240</v>
+        <v>52.3</v>
       </c>
       <c r="E261" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="F261" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5639,18 +4854,15 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>558</v>
+        <v>210</v>
       </c>
       <c r="C262" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D262" t="n">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="E262" t="n">
-        <v>48</v>
-      </c>
-      <c r="F262" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5659,18 +4871,15 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="C263" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D263" t="n">
-        <v>240</v>
+        <v>40.2</v>
       </c>
       <c r="E263" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="F263" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5679,18 +4888,15 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>562</v>
+        <v>230</v>
       </c>
       <c r="C264" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D264" t="n">
-        <v>240</v>
+        <v>33.45</v>
       </c>
       <c r="E264" t="n">
-        <v>33.45</v>
-      </c>
-      <c r="F264" t="n">
         <v>61</v>
       </c>
     </row>
@@ -5699,18 +4905,15 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>563</v>
+        <v>235</v>
       </c>
       <c r="C265" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D265" t="n">
-        <v>240</v>
+        <v>29.85</v>
       </c>
       <c r="E265" t="n">
-        <v>29.85</v>
-      </c>
-      <c r="F265" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5719,18 +4922,15 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>564</v>
+        <v>240</v>
       </c>
       <c r="C266" t="n">
         <v>240</v>
       </c>
       <c r="D266" t="n">
-        <v>240</v>
+        <v>26.61</v>
       </c>
       <c r="E266" t="n">
-        <v>26.61</v>
-      </c>
-      <c r="F266" t="n">
         <v>126</v>
       </c>
     </row>
@@ -5739,18 +4939,15 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>565</v>
+        <v>245</v>
       </c>
       <c r="C267" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D267" t="n">
-        <v>240</v>
+        <v>23.7</v>
       </c>
       <c r="E267" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F267" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5759,18 +4956,15 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>566</v>
+        <v>250</v>
       </c>
       <c r="C268" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D268" t="n">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="E268" t="n">
-        <v>21</v>
-      </c>
-      <c r="F268" t="n">
         <v>134</v>
       </c>
     </row>
@@ -5779,18 +4973,15 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>567</v>
+        <v>255</v>
       </c>
       <c r="C269" t="n">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D269" t="n">
-        <v>240</v>
+        <v>18.35</v>
       </c>
       <c r="E269" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="F269" t="n">
         <v>30</v>
       </c>
     </row>
@@ -5799,18 +4990,15 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>568</v>
+        <v>260</v>
       </c>
       <c r="C270" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D270" t="n">
-        <v>240</v>
+        <v>16.3</v>
       </c>
       <c r="E270" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F270" t="n">
         <v>163</v>
       </c>
     </row>
@@ -5819,18 +5007,15 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>569</v>
+        <v>265</v>
       </c>
       <c r="C271" t="n">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="D271" t="n">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="E271" t="n">
-        <v>14</v>
-      </c>
-      <c r="F271" t="n">
         <v>22</v>
       </c>
     </row>
@@ -5839,18 +5024,15 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>570</v>
+        <v>270</v>
       </c>
       <c r="C272" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="D272" t="n">
-        <v>240</v>
+        <v>12.29</v>
       </c>
       <c r="E272" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F272" t="n">
         <v>31</v>
       </c>
     </row>
@@ -5859,18 +5041,15 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>571</v>
+        <v>275</v>
       </c>
       <c r="C273" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="D273" t="n">
-        <v>240</v>
+        <v>10.4</v>
       </c>
       <c r="E273" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F273" t="n">
         <v>129</v>
       </c>
     </row>
@@ -5879,18 +5058,15 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>572</v>
+        <v>280</v>
       </c>
       <c r="C274" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="D274" t="n">
-        <v>240</v>
+        <v>8.9</v>
       </c>
       <c r="E274" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="F274" t="n">
         <v>55</v>
       </c>
     </row>
@@ -5899,18 +5075,15 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>573</v>
+        <v>285</v>
       </c>
       <c r="C275" t="n">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D275" t="n">
-        <v>240</v>
+        <v>7.8</v>
       </c>
       <c r="E275" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F275" t="n">
         <v>112</v>
       </c>
     </row>
@@ -5919,18 +5092,15 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>575</v>
+        <v>295</v>
       </c>
       <c r="C276" t="n">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="D276" t="n">
-        <v>240</v>
+        <v>5.48</v>
       </c>
       <c r="E276" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="F276" t="n">
         <v>23</v>
       </c>
     </row>
@@ -5939,18 +5109,15 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>576</v>
+        <v>300</v>
       </c>
       <c r="C277" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D277" t="n">
-        <v>240</v>
+        <v>4.8</v>
       </c>
       <c r="E277" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F277" t="n">
         <v>91</v>
       </c>
     </row>
@@ -5959,18 +5126,15 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>577</v>
+        <v>305</v>
       </c>
       <c r="C278" t="n">
-        <v>305</v>
+        <v>240</v>
       </c>
       <c r="D278" t="n">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="E278" t="n">
-        <v>4</v>
-      </c>
-      <c r="F278" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5979,18 +5143,15 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>578</v>
+        <v>310</v>
       </c>
       <c r="C279" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="D279" t="n">
-        <v>240</v>
+        <v>3.3</v>
       </c>
       <c r="E279" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F279" t="n">
         <v>28</v>
       </c>
     </row>
@@ -5999,18 +5160,15 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>579</v>
+        <v>315</v>
       </c>
       <c r="C280" t="n">
-        <v>315</v>
+        <v>240</v>
       </c>
       <c r="D280" t="n">
-        <v>240</v>
+        <v>2.9</v>
       </c>
       <c r="E280" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F280" t="n">
         <v>60</v>
       </c>
     </row>
@@ -6019,18 +5177,15 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>582</v>
+        <v>330</v>
       </c>
       <c r="C281" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="D281" t="n">
-        <v>240</v>
+        <v>1.83</v>
       </c>
       <c r="E281" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="F281" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6039,18 +5194,15 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>584</v>
+        <v>340</v>
       </c>
       <c r="C282" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="D282" t="n">
-        <v>240</v>
+        <v>1.39</v>
       </c>
       <c r="E282" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="F282" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6059,18 +5211,15 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>586</v>
+        <v>350</v>
       </c>
       <c r="C283" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="D283" t="n">
-        <v>240</v>
+        <v>0.85</v>
       </c>
       <c r="E283" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F283" t="n">
         <v>13</v>
       </c>
     </row>
@@ -6079,18 +5228,15 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>589</v>
+        <v>365</v>
       </c>
       <c r="C284" t="n">
-        <v>365</v>
+        <v>240</v>
       </c>
       <c r="D284" t="n">
-        <v>240</v>
+        <v>0.76</v>
       </c>
       <c r="E284" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="F284" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6099,18 +5245,15 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>593</v>
+        <v>390</v>
       </c>
       <c r="C285" t="n">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="D285" t="n">
-        <v>240</v>
+        <v>0.5</v>
       </c>
       <c r="E285" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F285" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6119,18 +5262,15 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>613</v>
+        <v>175</v>
       </c>
       <c r="C286" t="n">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="D286" t="n">
-        <v>296</v>
+        <v>79.98</v>
       </c>
       <c r="E286" t="n">
-        <v>79.98</v>
-      </c>
-      <c r="F286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6139,18 +5279,15 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>618</v>
+        <v>200</v>
       </c>
       <c r="C287" t="n">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="D287" t="n">
-        <v>296</v>
+        <v>58.25</v>
       </c>
       <c r="E287" t="n">
-        <v>58.25</v>
-      </c>
-      <c r="F287" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6159,18 +5296,15 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>620</v>
+        <v>210</v>
       </c>
       <c r="C288" t="n">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="D288" t="n">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="E288" t="n">
-        <v>50</v>
-      </c>
-      <c r="F288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6179,18 +5313,15 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>626</v>
+        <v>240</v>
       </c>
       <c r="C289" t="n">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="D289" t="n">
-        <v>296</v>
+        <v>29.35</v>
       </c>
       <c r="E289" t="n">
-        <v>29.35</v>
-      </c>
-      <c r="F289" t="n">
         <v>53</v>
       </c>
     </row>
@@ -6199,18 +5330,15 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>627</v>
+        <v>245</v>
       </c>
       <c r="C290" t="n">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D290" t="n">
-        <v>296</v>
+        <v>26.55</v>
       </c>
       <c r="E290" t="n">
-        <v>26.55</v>
-      </c>
-      <c r="F290" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6219,18 +5347,15 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>628</v>
+        <v>250</v>
       </c>
       <c r="C291" t="n">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="D291" t="n">
-        <v>296</v>
+        <v>23.59</v>
       </c>
       <c r="E291" t="n">
-        <v>23.59</v>
-      </c>
-      <c r="F291" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6239,18 +5364,15 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>629</v>
+        <v>255</v>
       </c>
       <c r="C292" t="n">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="D292" t="n">
-        <v>296</v>
+        <v>21.18</v>
       </c>
       <c r="E292" t="n">
-        <v>21.18</v>
-      </c>
-      <c r="F292" t="n">
         <v>36</v>
       </c>
     </row>
@@ -6259,18 +5381,15 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>630</v>
+        <v>260</v>
       </c>
       <c r="C293" t="n">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="D293" t="n">
-        <v>296</v>
+        <v>18.9</v>
       </c>
       <c r="E293" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F293" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6279,18 +5398,15 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>631</v>
+        <v>265</v>
       </c>
       <c r="C294" t="n">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="D294" t="n">
-        <v>296</v>
+        <v>16.54</v>
       </c>
       <c r="E294" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="F294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6299,18 +5415,15 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>632</v>
+        <v>270</v>
       </c>
       <c r="C295" t="n">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="D295" t="n">
-        <v>296</v>
+        <v>14.9</v>
       </c>
       <c r="E295" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6319,18 +5432,15 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>635</v>
+        <v>285</v>
       </c>
       <c r="C296" t="n">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D296" t="n">
-        <v>296</v>
+        <v>9.93</v>
       </c>
       <c r="E296" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="F296" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6339,18 +5449,15 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>640</v>
+        <v>310</v>
       </c>
       <c r="C297" t="n">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D297" t="n">
-        <v>296</v>
+        <v>5.04</v>
       </c>
       <c r="E297" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="F297" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6359,18 +5466,15 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>649</v>
+        <v>355</v>
       </c>
       <c r="C298" t="n">
-        <v>355</v>
+        <v>296</v>
       </c>
       <c r="D298" t="n">
-        <v>296</v>
+        <v>1.54</v>
       </c>
       <c r="E298" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="F298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +5483,15 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>655</v>
+        <v>390</v>
       </c>
       <c r="C299" t="n">
-        <v>390</v>
+        <v>296</v>
       </c>
       <c r="D299" t="n">
-        <v>296</v>
+        <v>0.82</v>
       </c>
       <c r="E299" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,18 +5500,15 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>672</v>
+        <v>160</v>
       </c>
       <c r="C300" t="n">
-        <v>160</v>
+        <v>387</v>
       </c>
       <c r="D300" t="n">
-        <v>387</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E300" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="F300" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6419,18 +5517,15 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="C301" t="n">
-        <v>200</v>
+        <v>387</v>
       </c>
       <c r="D301" t="n">
-        <v>387</v>
+        <v>60.25</v>
       </c>
       <c r="E301" t="n">
-        <v>60.25</v>
-      </c>
-      <c r="F301" t="n">
         <v>12</v>
       </c>
     </row>
@@ -6439,18 +5534,15 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>682</v>
+        <v>210</v>
       </c>
       <c r="C302" t="n">
-        <v>210</v>
+        <v>387</v>
       </c>
       <c r="D302" t="n">
-        <v>387</v>
+        <v>52.56</v>
       </c>
       <c r="E302" t="n">
-        <v>52.56</v>
-      </c>
-      <c r="F302" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6459,18 +5551,15 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>684</v>
+        <v>220</v>
       </c>
       <c r="C303" t="n">
-        <v>220</v>
+        <v>387</v>
       </c>
       <c r="D303" t="n">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="E303" t="n">
-        <v>45</v>
-      </c>
-      <c r="F303" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6479,18 +5568,15 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>685</v>
+        <v>225</v>
       </c>
       <c r="C304" t="n">
-        <v>225</v>
+        <v>387</v>
       </c>
       <c r="D304" t="n">
-        <v>387</v>
+        <v>42.45</v>
       </c>
       <c r="E304" t="n">
-        <v>42.45</v>
-      </c>
-      <c r="F304" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6499,18 +5585,15 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>686</v>
+        <v>230</v>
       </c>
       <c r="C305" t="n">
-        <v>230</v>
+        <v>387</v>
       </c>
       <c r="D305" t="n">
-        <v>387</v>
+        <v>38.15</v>
       </c>
       <c r="E305" t="n">
-        <v>38.15</v>
-      </c>
-      <c r="F305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +5602,15 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>688</v>
+        <v>240</v>
       </c>
       <c r="C306" t="n">
-        <v>240</v>
+        <v>387</v>
       </c>
       <c r="D306" t="n">
-        <v>387</v>
+        <v>32.69</v>
       </c>
       <c r="E306" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="F306" t="n">
         <v>44</v>
       </c>
     </row>
@@ -6539,18 +5619,15 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>689</v>
+        <v>245</v>
       </c>
       <c r="C307" t="n">
-        <v>245</v>
+        <v>387</v>
       </c>
       <c r="D307" t="n">
-        <v>387</v>
+        <v>30.13</v>
       </c>
       <c r="E307" t="n">
-        <v>30.13</v>
-      </c>
-      <c r="F307" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6559,18 +5636,15 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>690</v>
+        <v>250</v>
       </c>
       <c r="C308" t="n">
-        <v>250</v>
+        <v>387</v>
       </c>
       <c r="D308" t="n">
-        <v>387</v>
+        <v>27.36</v>
       </c>
       <c r="E308" t="n">
-        <v>27.36</v>
-      </c>
-      <c r="F308" t="n">
         <v>319</v>
       </c>
     </row>
@@ -6579,18 +5653,15 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>691</v>
+        <v>255</v>
       </c>
       <c r="C309" t="n">
-        <v>255</v>
+        <v>387</v>
       </c>
       <c r="D309" t="n">
-        <v>387</v>
+        <v>24.95</v>
       </c>
       <c r="E309" t="n">
-        <v>24.95</v>
-      </c>
-      <c r="F309" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6599,18 +5670,15 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>692</v>
+        <v>260</v>
       </c>
       <c r="C310" t="n">
-        <v>260</v>
+        <v>387</v>
       </c>
       <c r="D310" t="n">
-        <v>387</v>
+        <v>22.62</v>
       </c>
       <c r="E310" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="F310" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6619,18 +5687,15 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>693</v>
+        <v>265</v>
       </c>
       <c r="C311" t="n">
-        <v>265</v>
+        <v>387</v>
       </c>
       <c r="D311" t="n">
-        <v>387</v>
+        <v>20.66</v>
       </c>
       <c r="E311" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="F311" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6639,18 +5704,15 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>694</v>
+        <v>270</v>
       </c>
       <c r="C312" t="n">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="D312" t="n">
-        <v>387</v>
+        <v>18.52</v>
       </c>
       <c r="E312" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="F312" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6659,18 +5721,15 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>695</v>
+        <v>275</v>
       </c>
       <c r="C313" t="n">
-        <v>275</v>
+        <v>387</v>
       </c>
       <c r="D313" t="n">
-        <v>387</v>
+        <v>16.67</v>
       </c>
       <c r="E313" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="F313" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6679,18 +5738,15 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>697</v>
+        <v>285</v>
       </c>
       <c r="C314" t="n">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="D314" t="n">
-        <v>387</v>
+        <v>13.49</v>
       </c>
       <c r="E314" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="F314" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6699,18 +5755,15 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>699</v>
+        <v>295</v>
       </c>
       <c r="C315" t="n">
-        <v>295</v>
+        <v>387</v>
       </c>
       <c r="D315" t="n">
-        <v>387</v>
+        <v>10.89</v>
       </c>
       <c r="E315" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="F315" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6719,18 +5772,15 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="C316" t="n">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="D316" t="n">
-        <v>387</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E316" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F316" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6739,18 +5789,15 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>704</v>
+        <v>320</v>
       </c>
       <c r="C317" t="n">
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="D317" t="n">
-        <v>387</v>
+        <v>6.3</v>
       </c>
       <c r="E317" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F317" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6759,18 +5806,15 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>705</v>
+        <v>325</v>
       </c>
       <c r="C318" t="n">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="D318" t="n">
-        <v>387</v>
+        <v>5.45</v>
       </c>
       <c r="E318" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="F318" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6779,18 +5823,15 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>740</v>
+        <v>190</v>
       </c>
       <c r="C319" t="n">
-        <v>190</v>
+        <v>478</v>
       </c>
       <c r="D319" t="n">
-        <v>478</v>
+        <v>70</v>
       </c>
       <c r="E319" t="n">
-        <v>70</v>
-      </c>
-      <c r="F319" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6799,18 +5840,15 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>752</v>
+        <v>250</v>
       </c>
       <c r="C320" t="n">
-        <v>250</v>
+        <v>478</v>
       </c>
       <c r="D320" t="n">
-        <v>478</v>
+        <v>30.6</v>
       </c>
       <c r="E320" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F320" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6819,18 +5857,15 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>753</v>
+        <v>255</v>
       </c>
       <c r="C321" t="n">
-        <v>255</v>
+        <v>478</v>
       </c>
       <c r="D321" t="n">
-        <v>478</v>
+        <v>27.99</v>
       </c>
       <c r="E321" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="F321" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6839,18 +5874,15 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>754</v>
+        <v>260</v>
       </c>
       <c r="C322" t="n">
-        <v>260</v>
+        <v>478</v>
       </c>
       <c r="D322" t="n">
-        <v>478</v>
+        <v>25.72</v>
       </c>
       <c r="E322" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="F322" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6859,18 +5891,15 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>762</v>
+        <v>300</v>
       </c>
       <c r="C323" t="n">
-        <v>300</v>
+        <v>478</v>
       </c>
       <c r="D323" t="n">
-        <v>478</v>
+        <v>12.8</v>
       </c>
       <c r="E323" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F323" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6879,18 +5908,15 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>767</v>
+        <v>325</v>
       </c>
       <c r="C324" t="n">
-        <v>325</v>
+        <v>478</v>
       </c>
       <c r="D324" t="n">
-        <v>478</v>
+        <v>7.66</v>
       </c>
       <c r="E324" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="F324" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6899,18 +5925,15 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>774</v>
+        <v>360</v>
       </c>
       <c r="C325" t="n">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="D325" t="n">
-        <v>478</v>
+        <v>4.2</v>
       </c>
       <c r="E325" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F325" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6919,18 +5942,15 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>793</v>
+        <v>170</v>
       </c>
       <c r="C326" t="n">
-        <v>170</v>
+        <v>604</v>
       </c>
       <c r="D326" t="n">
-        <v>604</v>
+        <v>88</v>
       </c>
       <c r="E326" t="n">
-        <v>88</v>
-      </c>
-      <c r="F326" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +5959,15 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>796</v>
+        <v>185</v>
       </c>
       <c r="C327" t="n">
-        <v>185</v>
+        <v>604</v>
       </c>
       <c r="D327" t="n">
-        <v>604</v>
+        <v>76</v>
       </c>
       <c r="E327" t="n">
-        <v>76</v>
-      </c>
-      <c r="F327" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6959,18 +5976,15 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>799</v>
+        <v>200</v>
       </c>
       <c r="C328" t="n">
-        <v>200</v>
+        <v>604</v>
       </c>
       <c r="D328" t="n">
-        <v>604</v>
+        <v>64.34</v>
       </c>
       <c r="E328" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="F328" t="n">
         <v>28</v>
       </c>
     </row>
@@ -6979,18 +5993,15 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>801</v>
+        <v>210</v>
       </c>
       <c r="C329" t="n">
-        <v>210</v>
+        <v>604</v>
       </c>
       <c r="D329" t="n">
-        <v>604</v>
+        <v>57.85</v>
       </c>
       <c r="E329" t="n">
-        <v>57.85</v>
-      </c>
-      <c r="F329" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6999,18 +6010,15 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>803</v>
+        <v>220</v>
       </c>
       <c r="C330" t="n">
-        <v>220</v>
+        <v>604</v>
       </c>
       <c r="D330" t="n">
-        <v>604</v>
+        <v>50.85</v>
       </c>
       <c r="E330" t="n">
-        <v>50.85</v>
-      </c>
-      <c r="F330" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7019,18 +6027,15 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>805</v>
+        <v>230</v>
       </c>
       <c r="C331" t="n">
-        <v>230</v>
+        <v>604</v>
       </c>
       <c r="D331" t="n">
-        <v>604</v>
+        <v>45</v>
       </c>
       <c r="E331" t="n">
-        <v>45</v>
-      </c>
-      <c r="F331" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7039,18 +6044,15 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>806</v>
+        <v>235</v>
       </c>
       <c r="C332" t="n">
-        <v>235</v>
+        <v>604</v>
       </c>
       <c r="D332" t="n">
-        <v>604</v>
+        <v>41.89</v>
       </c>
       <c r="E332" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="F332" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7059,18 +6061,15 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>807</v>
+        <v>240</v>
       </c>
       <c r="C333" t="n">
-        <v>240</v>
+        <v>604</v>
       </c>
       <c r="D333" t="n">
-        <v>604</v>
+        <v>39.64</v>
       </c>
       <c r="E333" t="n">
-        <v>39.64</v>
-      </c>
-      <c r="F333" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7079,18 +6078,15 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>808</v>
+        <v>245</v>
       </c>
       <c r="C334" t="n">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="D334" t="n">
-        <v>604</v>
+        <v>36.9</v>
       </c>
       <c r="E334" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="F334" t="n">
         <v>11</v>
       </c>
     </row>
@@ -7099,18 +6095,15 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>809</v>
+        <v>250</v>
       </c>
       <c r="C335" t="n">
-        <v>250</v>
+        <v>604</v>
       </c>
       <c r="D335" t="n">
-        <v>604</v>
+        <v>34.75</v>
       </c>
       <c r="E335" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="F335" t="n">
         <v>9</v>
       </c>
     </row>
@@ -7119,18 +6112,15 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>810</v>
+        <v>255</v>
       </c>
       <c r="C336" t="n">
-        <v>255</v>
+        <v>604</v>
       </c>
       <c r="D336" t="n">
-        <v>604</v>
+        <v>32.1</v>
       </c>
       <c r="E336" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="F336" t="n">
         <v>38</v>
       </c>
     </row>
@@ -7139,18 +6129,15 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>812</v>
+        <v>265</v>
       </c>
       <c r="C337" t="n">
-        <v>265</v>
+        <v>604</v>
       </c>
       <c r="D337" t="n">
-        <v>604</v>
+        <v>27.5</v>
       </c>
       <c r="E337" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F337" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7159,18 +6146,15 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>813</v>
+        <v>270</v>
       </c>
       <c r="C338" t="n">
-        <v>270</v>
+        <v>604</v>
       </c>
       <c r="D338" t="n">
-        <v>604</v>
+        <v>25.5</v>
       </c>
       <c r="E338" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F338" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7179,18 +6163,15 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>814</v>
+        <v>275</v>
       </c>
       <c r="C339" t="n">
-        <v>275</v>
+        <v>604</v>
       </c>
       <c r="D339" t="n">
-        <v>604</v>
+        <v>23.65</v>
       </c>
       <c r="E339" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="F339" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7199,18 +6180,15 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>817</v>
+        <v>290</v>
       </c>
       <c r="C340" t="n">
-        <v>290</v>
+        <v>604</v>
       </c>
       <c r="D340" t="n">
-        <v>604</v>
+        <v>18.82</v>
       </c>
       <c r="E340" t="n">
-        <v>18.82</v>
-      </c>
-      <c r="F340" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7219,18 +6197,15 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>819</v>
+        <v>300</v>
       </c>
       <c r="C341" t="n">
-        <v>300</v>
+        <v>604</v>
       </c>
       <c r="D341" t="n">
-        <v>604</v>
+        <v>16.08</v>
       </c>
       <c r="E341" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="F341" t="n">
         <v>38</v>
       </c>
     </row>
@@ -7239,18 +6214,15 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>823</v>
+        <v>320</v>
       </c>
       <c r="C342" t="n">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="D342" t="n">
-        <v>604</v>
+        <v>11.65</v>
       </c>
       <c r="E342" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F342" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7259,18 +6231,15 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>825</v>
+        <v>330</v>
       </c>
       <c r="C343" t="n">
-        <v>330</v>
+        <v>604</v>
       </c>
       <c r="D343" t="n">
-        <v>604</v>
+        <v>9.9</v>
       </c>
       <c r="E343" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F343" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7279,18 +6248,15 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>826</v>
+        <v>335</v>
       </c>
       <c r="C344" t="n">
-        <v>335</v>
+        <v>604</v>
       </c>
       <c r="D344" t="n">
-        <v>604</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E344" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F344" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7299,18 +6265,15 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>828</v>
+        <v>345</v>
       </c>
       <c r="C345" t="n">
-        <v>345</v>
+        <v>604</v>
       </c>
       <c r="D345" t="n">
-        <v>604</v>
+        <v>7.78</v>
       </c>
       <c r="E345" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="F345" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7319,18 +6282,15 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>829</v>
+        <v>350</v>
       </c>
       <c r="C346" t="n">
-        <v>350</v>
+        <v>604</v>
       </c>
       <c r="D346" t="n">
-        <v>604</v>
+        <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>7</v>
-      </c>
-      <c r="F346" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7339,18 +6299,15 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>832</v>
+        <v>365</v>
       </c>
       <c r="C347" t="n">
-        <v>365</v>
+        <v>604</v>
       </c>
       <c r="D347" t="n">
-        <v>604</v>
+        <v>5.61</v>
       </c>
       <c r="E347" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="F347" t="n">
         <v>29</v>
       </c>
     </row>
@@ -7359,18 +6316,15 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>833</v>
+        <v>370</v>
       </c>
       <c r="C348" t="n">
-        <v>370</v>
+        <v>604</v>
       </c>
       <c r="D348" t="n">
-        <v>604</v>
+        <v>5.15</v>
       </c>
       <c r="E348" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F348" t="n">
         <v>166</v>
       </c>
     </row>
@@ -7379,18 +6333,15 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>845</v>
+        <v>150</v>
       </c>
       <c r="C349" t="n">
-        <v>150</v>
+        <v>660</v>
       </c>
       <c r="D349" t="n">
-        <v>660</v>
+        <v>106</v>
       </c>
       <c r="E349" t="n">
-        <v>106</v>
-      </c>
-      <c r="F349" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7399,18 +6350,15 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>846</v>
+        <v>155</v>
       </c>
       <c r="C350" t="n">
-        <v>155</v>
+        <v>660</v>
       </c>
       <c r="D350" t="n">
-        <v>660</v>
+        <v>102</v>
       </c>
       <c r="E350" t="n">
-        <v>102</v>
-      </c>
-      <c r="F350" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7419,18 +6367,15 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>849</v>
+        <v>170</v>
       </c>
       <c r="C351" t="n">
-        <v>170</v>
+        <v>660</v>
       </c>
       <c r="D351" t="n">
-        <v>660</v>
+        <v>88.8</v>
       </c>
       <c r="E351" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="F351" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7439,18 +6384,15 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>851</v>
+        <v>180</v>
       </c>
       <c r="C352" t="n">
-        <v>180</v>
+        <v>660</v>
       </c>
       <c r="D352" t="n">
-        <v>660</v>
+        <v>79.8</v>
       </c>
       <c r="E352" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="F352" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7459,18 +6401,15 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>853</v>
+        <v>190</v>
       </c>
       <c r="C353" t="n">
-        <v>190</v>
+        <v>660</v>
       </c>
       <c r="D353" t="n">
-        <v>660</v>
+        <v>73.29000000000001</v>
       </c>
       <c r="E353" t="n">
-        <v>73.29000000000001</v>
-      </c>
-      <c r="F353" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7479,18 +6418,15 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>854</v>
+        <v>195</v>
       </c>
       <c r="C354" t="n">
-        <v>195</v>
+        <v>660</v>
       </c>
       <c r="D354" t="n">
-        <v>660</v>
+        <v>69.61</v>
       </c>
       <c r="E354" t="n">
-        <v>69.61</v>
-      </c>
-      <c r="F354" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,18 +6435,15 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="C355" t="n">
-        <v>200</v>
+        <v>660</v>
       </c>
       <c r="D355" t="n">
-        <v>660</v>
+        <v>65</v>
       </c>
       <c r="E355" t="n">
-        <v>65</v>
-      </c>
-      <c r="F355" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7519,18 +6452,15 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>857</v>
+        <v>210</v>
       </c>
       <c r="C356" t="n">
-        <v>210</v>
+        <v>660</v>
       </c>
       <c r="D356" t="n">
-        <v>660</v>
+        <v>59.37</v>
       </c>
       <c r="E356" t="n">
-        <v>59.37</v>
-      </c>
-      <c r="F356" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7539,18 +6469,15 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>861</v>
+        <v>230</v>
       </c>
       <c r="C357" t="n">
-        <v>230</v>
+        <v>660</v>
       </c>
       <c r="D357" t="n">
-        <v>660</v>
+        <v>46.73</v>
       </c>
       <c r="E357" t="n">
-        <v>46.73</v>
-      </c>
-      <c r="F357" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7559,18 +6486,15 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>862</v>
+        <v>235</v>
       </c>
       <c r="C358" t="n">
-        <v>235</v>
+        <v>660</v>
       </c>
       <c r="D358" t="n">
-        <v>660</v>
+        <v>43.3</v>
       </c>
       <c r="E358" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="F358" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7579,18 +6503,15 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>865</v>
+        <v>250</v>
       </c>
       <c r="C359" t="n">
-        <v>250</v>
+        <v>660</v>
       </c>
       <c r="D359" t="n">
-        <v>660</v>
+        <v>36</v>
       </c>
       <c r="E359" t="n">
-        <v>36</v>
-      </c>
-      <c r="F359" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7599,18 +6520,15 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>866</v>
+        <v>255</v>
       </c>
       <c r="C360" t="n">
-        <v>255</v>
+        <v>660</v>
       </c>
       <c r="D360" t="n">
-        <v>660</v>
+        <v>33.85</v>
       </c>
       <c r="E360" t="n">
-        <v>33.85</v>
-      </c>
-      <c r="F360" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7619,18 +6537,15 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>869</v>
+        <v>270</v>
       </c>
       <c r="C361" t="n">
-        <v>270</v>
+        <v>660</v>
       </c>
       <c r="D361" t="n">
-        <v>660</v>
+        <v>26.95</v>
       </c>
       <c r="E361" t="n">
-        <v>26.95</v>
-      </c>
-      <c r="F361" t="n">
         <v>54</v>
       </c>
     </row>
@@ -7639,18 +6554,15 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>870</v>
+        <v>275</v>
       </c>
       <c r="C362" t="n">
-        <v>275</v>
+        <v>660</v>
       </c>
       <c r="D362" t="n">
-        <v>660</v>
+        <v>25.5</v>
       </c>
       <c r="E362" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F362" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7659,18 +6571,15 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>872</v>
+        <v>285</v>
       </c>
       <c r="C363" t="n">
-        <v>285</v>
+        <v>660</v>
       </c>
       <c r="D363" t="n">
-        <v>660</v>
+        <v>22.1</v>
       </c>
       <c r="E363" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="F363" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7679,18 +6588,15 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>875</v>
+        <v>300</v>
       </c>
       <c r="C364" t="n">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="D364" t="n">
-        <v>660</v>
+        <v>17.49</v>
       </c>
       <c r="E364" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="F364" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7699,18 +6605,15 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>893</v>
+        <v>115</v>
       </c>
       <c r="C365" t="n">
-        <v>115</v>
+        <v>751</v>
       </c>
       <c r="D365" t="n">
-        <v>751</v>
+        <v>137.73</v>
       </c>
       <c r="E365" t="n">
-        <v>137.73</v>
-      </c>
-      <c r="F365" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7719,18 +6622,15 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>896</v>
+        <v>130</v>
       </c>
       <c r="C366" t="n">
-        <v>130</v>
+        <v>751</v>
       </c>
       <c r="D366" t="n">
-        <v>751</v>
+        <v>125.3</v>
       </c>
       <c r="E366" t="n">
-        <v>125.3</v>
-      </c>
-      <c r="F366" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7739,18 +6639,15 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>901</v>
+        <v>155</v>
       </c>
       <c r="C367" t="n">
-        <v>155</v>
+        <v>751</v>
       </c>
       <c r="D367" t="n">
-        <v>751</v>
+        <v>102.6</v>
       </c>
       <c r="E367" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="F367" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7759,18 +6656,15 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>910</v>
+        <v>200</v>
       </c>
       <c r="C368" t="n">
-        <v>200</v>
+        <v>751</v>
       </c>
       <c r="D368" t="n">
-        <v>751</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E368" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F368" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7779,18 +6673,15 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>914</v>
+        <v>220</v>
       </c>
       <c r="C369" t="n">
-        <v>220</v>
+        <v>751</v>
       </c>
       <c r="D369" t="n">
-        <v>751</v>
+        <v>56.45</v>
       </c>
       <c r="E369" t="n">
-        <v>56.45</v>
-      </c>
-      <c r="F369" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7799,18 +6690,15 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>915</v>
+        <v>225</v>
       </c>
       <c r="C370" t="n">
-        <v>225</v>
+        <v>751</v>
       </c>
       <c r="D370" t="n">
-        <v>751</v>
+        <v>52.01</v>
       </c>
       <c r="E370" t="n">
-        <v>52.01</v>
-      </c>
-      <c r="F370" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7819,18 +6707,15 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>916</v>
+        <v>230</v>
       </c>
       <c r="C371" t="n">
-        <v>230</v>
+        <v>751</v>
       </c>
       <c r="D371" t="n">
-        <v>751</v>
+        <v>49.11</v>
       </c>
       <c r="E371" t="n">
-        <v>49.11</v>
-      </c>
-      <c r="F371" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7839,18 +6724,15 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>917</v>
+        <v>235</v>
       </c>
       <c r="C372" t="n">
-        <v>235</v>
+        <v>751</v>
       </c>
       <c r="D372" t="n">
-        <v>751</v>
+        <v>46</v>
       </c>
       <c r="E372" t="n">
-        <v>46</v>
-      </c>
-      <c r="F372" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7859,18 +6741,15 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>919</v>
+        <v>245</v>
       </c>
       <c r="C373" t="n">
-        <v>245</v>
+        <v>751</v>
       </c>
       <c r="D373" t="n">
-        <v>751</v>
+        <v>41.9</v>
       </c>
       <c r="E373" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F373" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7879,18 +6758,15 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>920</v>
+        <v>250</v>
       </c>
       <c r="C374" t="n">
-        <v>250</v>
+        <v>751</v>
       </c>
       <c r="D374" t="n">
-        <v>751</v>
+        <v>38.31</v>
       </c>
       <c r="E374" t="n">
-        <v>38.31</v>
-      </c>
-      <c r="F374" t="n">
         <v>11</v>
       </c>
     </row>
@@ -7899,18 +6775,15 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>921</v>
+        <v>255</v>
       </c>
       <c r="C375" t="n">
-        <v>255</v>
+        <v>751</v>
       </c>
       <c r="D375" t="n">
-        <v>751</v>
+        <v>36.08</v>
       </c>
       <c r="E375" t="n">
-        <v>36.08</v>
-      </c>
-      <c r="F375" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7919,18 +6792,15 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>922</v>
+        <v>260</v>
       </c>
       <c r="C376" t="n">
-        <v>260</v>
+        <v>751</v>
       </c>
       <c r="D376" t="n">
-        <v>751</v>
+        <v>33.7</v>
       </c>
       <c r="E376" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="F376" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7939,18 +6809,15 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>924</v>
+        <v>270</v>
       </c>
       <c r="C377" t="n">
-        <v>270</v>
+        <v>751</v>
       </c>
       <c r="D377" t="n">
-        <v>751</v>
+        <v>29.08</v>
       </c>
       <c r="E377" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="F377" t="n">
         <v>24</v>
       </c>
     </row>
@@ -7959,18 +6826,15 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>932</v>
+        <v>310</v>
       </c>
       <c r="C378" t="n">
-        <v>310</v>
+        <v>751</v>
       </c>
       <c r="D378" t="n">
-        <v>751</v>
+        <v>17.6</v>
       </c>
       <c r="E378" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="F378" t="n">
         <v>50</v>
       </c>
     </row>
@@ -7979,18 +6843,15 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>933</v>
+        <v>315</v>
       </c>
       <c r="C379" t="n">
-        <v>315</v>
+        <v>751</v>
       </c>
       <c r="D379" t="n">
-        <v>751</v>
+        <v>16.2</v>
       </c>
       <c r="E379" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F379" t="n">
         <v>56</v>
       </c>
     </row>
@@ -7999,18 +6860,15 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>934</v>
+        <v>320</v>
       </c>
       <c r="C380" t="n">
-        <v>320</v>
+        <v>751</v>
       </c>
       <c r="D380" t="n">
-        <v>751</v>
+        <v>14.59</v>
       </c>
       <c r="E380" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="F380" t="n">
         <v>46</v>
       </c>
     </row>
@@ -8019,18 +6877,15 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>936</v>
+        <v>330</v>
       </c>
       <c r="C381" t="n">
-        <v>330</v>
+        <v>751</v>
       </c>
       <c r="D381" t="n">
-        <v>751</v>
+        <v>10.6</v>
       </c>
       <c r="E381" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F381" t="n">
         <v>78</v>
       </c>
     </row>
@@ -8039,18 +6894,15 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>938</v>
+        <v>340</v>
       </c>
       <c r="C382" t="n">
-        <v>340</v>
+        <v>751</v>
       </c>
       <c r="D382" t="n">
-        <v>751</v>
+        <v>11.31</v>
       </c>
       <c r="E382" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="F382" t="n">
         <v>82</v>
       </c>
     </row>
@@ -8059,18 +6911,15 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>939</v>
+        <v>345</v>
       </c>
       <c r="C383" t="n">
-        <v>345</v>
+        <v>751</v>
       </c>
       <c r="D383" t="n">
-        <v>751</v>
+        <v>10.77</v>
       </c>
       <c r="E383" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="F383" t="n">
         <v>30</v>
       </c>
     </row>
@@ -8079,18 +6928,15 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>940</v>
+        <v>350</v>
       </c>
       <c r="C384" t="n">
-        <v>350</v>
+        <v>751</v>
       </c>
       <c r="D384" t="n">
-        <v>751</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E384" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="F384" t="n">
         <v>31</v>
       </c>
     </row>
@@ -8099,18 +6945,15 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>944</v>
+        <v>370</v>
       </c>
       <c r="C385" t="n">
-        <v>370</v>
+        <v>751</v>
       </c>
       <c r="D385" t="n">
-        <v>751</v>
+        <v>7.36</v>
       </c>
       <c r="E385" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F385" t="n">
         <v>25</v>
       </c>
     </row>
@@ -8119,18 +6962,15 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>947</v>
+        <v>390</v>
       </c>
       <c r="C386" t="n">
-        <v>390</v>
+        <v>751</v>
       </c>
       <c r="D386" t="n">
-        <v>751</v>
+        <v>6</v>
       </c>
       <c r="E386" t="n">
-        <v>6</v>
-      </c>
-      <c r="F386" t="n">
         <v>168</v>
       </c>
     </row>
